--- a/data/trans_dic/P25_N_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_N_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas</t>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>54,05%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>56,41%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>41,88%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>47,48%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>49,12%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>47,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,52; 34,55</t>
+          <t>27,18; 35,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,86; 33,79</t>
+          <t>26,13; 33,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,03; 36,41</t>
+          <t>28,26; 36,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,0; 44,14</t>
+          <t>36,94; 44,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,23; 54,94</t>
+          <t>36,57; 44,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,24; 49,03</t>
+          <t>33,34; 42,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,18; 54,17</t>
+          <t>48,08; 55,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,19; 57,65</t>
+          <t>41,61; 48,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,48; 44,28</t>
+          <t>46,06; 53,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,81; 40,3</t>
+          <t>50,33; 57,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,52; 44,67</t>
+          <t>54,17; 60,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,3; 49,86</t>
+          <t>52,3; 60,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>38,98; 44,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>35,14; 40,57</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>38,19; 44,12</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>44,71; 50,14</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>46,58; 51,88</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>44,28; 50,91</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>45,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>54,38%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>34,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>38,85%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>41,91%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>46,36%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>46,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,99; 35,4</t>
+          <t>24,24; 33,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,47; 32,6</t>
+          <t>23,85; 32,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,29; 38,42</t>
+          <t>28,43; 37,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,93; 37,27</t>
+          <t>25,88; 38,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,47; 49,18</t>
+          <t>32,84; 45,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,67; 44,58</t>
+          <t>33,45; 43,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,71; 49,22</t>
+          <t>40,1; 48,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,0; 60,65</t>
+          <t>37,11; 44,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,76; 40,5</t>
+          <t>41,15; 49,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,48; 37,43</t>
+          <t>45,89; 59,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,98; 42,34</t>
+          <t>47,13; 61,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,01; 46,54</t>
+          <t>49,39; 58,88</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33,22; 39,53</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>31,25; 37,06</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>35,64; 41,99</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>37,25; 46,62</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>41,78; 51,75</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>42,65; 50,03</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>56,96%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>58,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>44,66%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>42,84%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>57,05%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>44,17%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43,19%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>47,79%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,31; 43,02</t>
+          <t>24,8; 42,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 37,66</t>
+          <t>22,36; 37,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,99; 44,83</t>
+          <t>28,57; 45,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,3; 65,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,62; 64,72</t>
+          <t>23,91; 44,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,82; 66,27</t>
+          <t>46,27; 62,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>49,76; 64,51</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>50,36; 66,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>37,46; 51,31</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>36,65; 48,66</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,15; 53,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>47,34; 66,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>37,47; 50,23</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>37,46; 49,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>41,75; 53,71</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>38,29; 52,77</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>53,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>55,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>37,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>41,07%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>48,48%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,28</t>
+          <t>27,49; 33,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 31,74</t>
+          <t>26,4; 31,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 36,02</t>
+          <t>30,34; 35,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 41,2</t>
+          <t>35,4; 41,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,39; 52,05</t>
+          <t>36,45; 43,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,17; 47,14</t>
+          <t>34,22; 41,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,24; 51,93</t>
+          <t>46,74; 52,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,82; 57,27</t>
+          <t>42,35; 47,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,89; 42,44</t>
+          <t>46,2; 51,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,21; 38,94</t>
+          <t>50,75; 57,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,25; 43,3</t>
+          <t>53,78; 59,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,41; 48,33</t>
+          <t>52,45; 58,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>37,88; 42,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35,09; 38,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>39,18; 43,1</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>43,77; 48,65</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>45,87; 50,72</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>44,48; 49,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>743.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>566.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>513862</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>488264</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>531547</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>93290</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>92359</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>621890</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>936127</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>826509</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>896243</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>128584</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>136041</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1018999</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1449989</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1314773</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1427790</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>221873</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>228400</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1640889</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>449112; 583645</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>430574; 550489</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>464965; 597880</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>84768; 101967</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>83565; 101090</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>547247; 697413</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>869888; 1005383</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>761047; 886623</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>837706; 964188</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>119736; 137837</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>128120; 144226</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>944720; 1093580</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1349524; 1554791</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1221700; 1410465</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1322717; 1528304</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>208948; 234329</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>216588; 241233</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1526592; 1755251</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>467.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>388666</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>381750</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>449784</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23435</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28722</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>535159</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>619162</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>562088</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>623882</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34335</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36277</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>758292</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1007828</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>943838</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1073666</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>57770</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1293451</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>333111; 456416</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>328922; 443778</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>392741; 521194</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18711; 27947</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24065; 33396</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>463370; 606236</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>558014; 677703</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>509996; 617739</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>568683; 681079</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30084; 38836</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31536; 41081</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>688712; 821111</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>918715; 1093313</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>860555; 1020314</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>985068; 1160480</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>51355; 64264</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>58568; 72550</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1185517; 1390618</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>143222</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>126211</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>156624</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>142738</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>225480</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>233303</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>242260</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>234980</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>368702</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>359515</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>398884</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>377718</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104841; 180576</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94549; 159504</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>120813; 193387</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>101086; 186584</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>190604; 258499</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>203812; 264233</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>207432; 273130</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>195000; 274808</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>312749; 419245</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>311844; 410672</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>348463; 448339</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>319634; 440459</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>740.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>812.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>635.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1034.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1161.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1289.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>949.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1038.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1045751</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>996226</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1137955</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>116725</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>121081</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1299787</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1780768</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1621900</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1762385</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>162919</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>172318</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2012272</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2826519</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2618125</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2900340</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>279643</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>293399</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3312058</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>948270; 1142850</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>910655; 1091354</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1046480; 1238393</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>106827; 126275</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>109980; 130290</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1180307; 1422891</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1688680; 1880584</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1529950; 1714654</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1668912; 1853246</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>153995; 173568</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>163189; 182027</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1894773; 2111891</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2674955; 2968618</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2478201; 2749740</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2766623; 3043839</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>264877; 294426</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>277592; 306980</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3141493; 3467788</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
